--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - mẫu.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - mẫu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\2. Báo cáo công việc\Năm 2021\Tháng 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\2. Báo cáo công việc\Năm 2021\Tháng 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,9 +123,6 @@
     <t>Đóng hộp thiết bị</t>
   </si>
   <si>
-    <t>Tỷ lệ hoàn chưa thành (%)</t>
-  </si>
-  <si>
     <t>Chi tiết lỗi và số lượng lỗi theo mã thiết bị</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>CÔNG VIỆC SẢN XUẤT</t>
+  </si>
+  <si>
+    <t>Tỷ lệ chưa hoàn thành (%)</t>
   </si>
 </sst>
 </file>
@@ -363,15 +363,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,6 +375,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -683,7 +683,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,16 +699,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -814,16 +814,16 @@
       <c r="H8" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -924,16 +924,16 @@
       <c r="H18" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1034,16 +1034,16 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1159,13 +1159,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
     <col min="2" max="2" width="29.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="22" style="6" customWidth="1"/>
@@ -1179,7 +1179,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1196,8 +1196,8 @@
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>51</v>
+      <c r="A3" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>16</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -1316,29 +1316,29 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>32</v>
+      <c r="H19" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
@@ -1363,7 +1363,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -1375,7 +1375,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
@@ -1387,7 +1387,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
@@ -1399,7 +1399,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
@@ -1411,7 +1411,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="12"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
@@ -1423,7 +1423,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
@@ -1435,7 +1435,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
@@ -1447,7 +1447,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
@@ -1459,7 +1459,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
@@ -1471,7 +1471,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="12"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
@@ -1483,55 +1483,55 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="12"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="D35" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="E35" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="F35" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="G35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="H35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="K35" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K35" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L35" s="14" t="s">
+      <c r="M35" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="M35" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1558,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1577,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1596,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1615,7 +1615,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -1634,7 +1634,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
